--- a/Знакомство с базами данных (семинары)/Практическое задание 1.xlsx
+++ b/Знакомство с базами данных (семинары)/Практическое задание 1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\GB\Знакомство с базами данных (семинары)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D419056-9344-47C4-98AA-2A12D609AF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,240 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+  <si>
+    <t>Составьте таблицы для хранения сведений об общественном транспорте.
+— Можно на примере автобусов.
+— При составлении таблиц не берите слишком много сущностей. Ориентируйтесь на структуру типа: «У нас есть автобусы на разных маршрутах, у автобуса есть водитель, также в автобусе работает кондуктор». Более сложные/глубокие структуры пока лучше не брать.</t>
+  </si>
+  <si>
+    <t>Маршрутный лист</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Маршрут
+№</t>
+  </si>
+  <si>
+    <t>Автобус
+Гос. номер</t>
+  </si>
+  <si>
+    <t>Водитель
+id</t>
+  </si>
+  <si>
+    <t>Контролёр
+id</t>
+  </si>
+  <si>
+    <t>a123aa</t>
+  </si>
+  <si>
+    <t>e456ee</t>
+  </si>
+  <si>
+    <t>7к</t>
+  </si>
+  <si>
+    <t>Маршрут</t>
+  </si>
+  <si>
+    <t>Персонал</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Длинна, км</t>
+  </si>
+  <si>
+    <t>Остановки
+id</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Дата
+рождения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стаж до трудоустройства </t>
+  </si>
+  <si>
+    <t>Должность
+id</t>
+  </si>
+  <si>
+    <t>Дата
+трудоустройства</t>
+  </si>
+  <si>
+    <t>Смена</t>
+  </si>
+  <si>
+    <t>Кольцевой</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 4, 3, 2, 1</t>
+  </si>
+  <si>
+    <t>Иванов И.И.</t>
+  </si>
+  <si>
+    <t>Хордовый</t>
+  </si>
+  <si>
+    <t>2, 3, 4, 5</t>
+  </si>
+  <si>
+    <t>Петров П.П.</t>
+  </si>
+  <si>
+    <t>35Э</t>
+  </si>
+  <si>
+    <t>Хордовый-Экспресс</t>
+  </si>
+  <si>
+    <t>2,4,5</t>
+  </si>
+  <si>
+    <t>Сидорова Г.Е.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, 4, 5, 4, 3 </t>
+  </si>
+  <si>
+    <t>Васильева В.В.</t>
+  </si>
+  <si>
+    <t>Автобус</t>
+  </si>
+  <si>
+    <t>Должность</t>
+  </si>
+  <si>
+    <t>Гос.
+Номер</t>
+  </si>
+  <si>
+    <t>Max количество
+пассажиров</t>
+  </si>
+  <si>
+    <t>Дата последнего
+ТО</t>
+  </si>
+  <si>
+    <t>Пробег</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Оклад</t>
+  </si>
+  <si>
+    <t>Премия</t>
+  </si>
+  <si>
+    <t>Компенсация
+за вредность</t>
+  </si>
+  <si>
+    <t>Электробус</t>
+  </si>
+  <si>
+    <t>Водитель</t>
+  </si>
+  <si>
+    <t>Бензин</t>
+  </si>
+  <si>
+    <t>Контролёр</t>
+  </si>
+  <si>
+    <t>c787cc</t>
+  </si>
+  <si>
+    <t>Дизель</t>
+  </si>
+  <si>
+    <t>Остановки</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Координаты</t>
+  </si>
+  <si>
+    <t>По требованию</t>
+  </si>
+  <si>
+    <t>Конечная</t>
+  </si>
+  <si>
+    <t>Завод</t>
+  </si>
+  <si>
+    <t>1.2.25 - 56.14.5</t>
+  </si>
+  <si>
+    <t>ул. Ленина</t>
+  </si>
+  <si>
+    <t>2.56.7 - 78.4.6</t>
+  </si>
+  <si>
+    <t>Вокзал</t>
+  </si>
+  <si>
+    <t>98.65.63 - 6.5.9</t>
+  </si>
+  <si>
+    <t>Администрация</t>
+  </si>
+  <si>
+    <t>45.47.63 - 78.9.8</t>
+  </si>
+  <si>
+    <t>Парк</t>
+  </si>
+  <si>
+    <t>9.9.3 - 5.5.5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +277,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +621,677 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>44686</v>
+      </c>
+      <c r="D11" s="8">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8">
+        <v>75</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>44687</v>
+      </c>
+      <c r="D13" s="8">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="I17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3">
+        <v>30</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="11">
+        <v>25569</v>
+      </c>
+      <c r="L19" s="3">
+        <v>10</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="11">
+        <v>43994</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>75</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="3">
+        <v>40</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="I20" s="4">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="11">
+        <v>25965</v>
+      </c>
+      <c r="L20" s="3">
+        <v>15</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+      <c r="N20" s="11">
+        <v>36558</v>
+      </c>
+      <c r="O20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3">
+        <v>30</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="I21" s="4">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="11">
+        <v>32264</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>2</v>
+      </c>
+      <c r="N21" s="11">
+        <v>42068</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="3">
+        <v>25</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="4">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="11">
+        <v>32905</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2</v>
+      </c>
+      <c r="M22" s="3">
+        <v>2</v>
+      </c>
+      <c r="N22" s="11">
+        <v>41311</v>
+      </c>
+      <c r="O22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="I25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="11">
+        <v>44197</v>
+      </c>
+      <c r="F27" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="4">
+        <v>20000</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="3">
+        <v>99</v>
+      </c>
+      <c r="E28" s="11">
+        <v>44562</v>
+      </c>
+      <c r="F28" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I28" s="4">
+        <v>2</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="4">
+        <v>10000</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="3">
+        <v>110</v>
+      </c>
+      <c r="E29" s="11">
+        <v>43892</v>
+      </c>
+      <c r="F29" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="16">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="16">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="4">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="16">
+        <v>1</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B2:M7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>